--- a/biology/Botanique/Garnotia/Garnotia.xlsx
+++ b/biology/Botanique/Garnotia/Garnotia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garnotia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales d'Asie orientale, d'Australie et du Pacifique.
-Ce genre regroupe une trentaine d'espèces, répandues de l'Inde et du Népal jusqu'au Sud-Est asiatique, à l'Australie (Queensland), à la Polynésie et à Hawaï. Une espèce se rencontre aux Seychelles et cinq en Chine, dont deux endémiques[2].
+Ce genre regroupe une trentaine d'espèces, répandues de l'Inde et du Népal jusqu'au Sud-Est asiatique, à l'Australie (Queensland), à la Polynésie et à Hawaï. Une espèce se rencontre aux Seychelles et cinq en Chine, dont deux endémiques.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (24 juin 2016)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (24 juin 2016) :
 Garnotia arborum Stapf ex Woodrow (1908)
 Garnotia arundinacea Hook.f. (1896)
 Garnotia cheesemanii Hack., Trans. Linn. Soc. London (1903)
